--- a/medicine/Sexualité et sexologie/The_Client_List_(série_télévisée)/The_Client_List_(série_télévisée).xlsx
+++ b/medicine/Sexualité et sexologie/The_Client_List_(série_télévisée)/The_Client_List_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Client_List_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Client List ou La Liste au Québec[1] et en France est une série télévisée américaine en 25 épisodes de 42 minutes créée par Suzanne Martin (en) et développée par Jordan Budde, inspirée du téléfilm La Double Vie de Samantha (The Client List) diffusé le 19 juillet 2010 sur Lifetime. La série est diffusée entre le 8 avril 2012[2] et le 16 juin 2013 sur cette même chaîne.
-Au Québec, la série est diffusée depuis le 28 janvier 2014 sur Moi &amp; Cie Télé[3] ; et en France, acquise par TF1[4], depuis le 5 mars 2014 sur NT1[5] et depuis le 5 mars 2017 sur TMC. En Belgique, depuis le 2 novembre 2014 sur RTL-TVI[6] et sur RTLplay début septembre 2020. Toutefois, elle reste encore inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Client List ou La Liste au Québec et en France est une série télévisée américaine en 25 épisodes de 42 minutes créée par Suzanne Martin (en) et développée par Jordan Budde, inspirée du téléfilm La Double Vie de Samantha (The Client List) diffusé le 19 juillet 2010 sur Lifetime. La série est diffusée entre le 8 avril 2012 et le 16 juin 2013 sur cette même chaîne.
+Au Québec, la série est diffusée depuis le 28 janvier 2014 sur Moi &amp; Cie Télé ; et en France, acquise par TF1, depuis le 5 mars 2014 sur NT1 et depuis le 5 mars 2017 sur TMC. En Belgique, depuis le 2 novembre 2014 sur RTL-TVI et sur RTLplay début septembre 2020. Toutefois, elle reste encore inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Client_List_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Riley Parks est une mère célibataire qui vit dans une petite ville du Texas. Elle est en proie à des difficultés financières après que son mari s'est enfui du domicile conjugal et l'a laissée seule avec leurs enfants. Riley travaille désormais dans un spa en apparence traditionnel, mais se rend vite compte que le salon offre un peu plus que de simples massages. Tout en aidant à gérer l'entreprise, elle a du mal à équilibrer discrètement ses deux vies : celle d'une mère qui doit être présente pour sa famille et celle d'une femme qui fait des massages très particuliers à sa clientèle…
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Client_List_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Jennifer Love Hewitt (VF : Sophie Arthuys) : Riley Parks
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jennifer Love Hewitt (VF : Sophie Arthuys) : Riley Parks
 Loretta Devine (VF : Martine Irzenski) : Georgia Cummings
 Colin Egglesfield (VF : Raphaël Cohen) : Evan Parks
 Rebecca Field (VF : Anne Massoteau) : Lacely Jean
@@ -555,9 +574,43 @@
 Naturi Naughton (VF : Jessica Monceau) : Kendra (saison 1)
 Kathleen York (VF : Caroline Beaune) : Jolene (saison 1)
 Brian Hallisay (VF : Rémi Bichet) : Kyle Parks (saison 2 - récurrent saison 1)
-Laura-Leigh (en) (VF : Kelly Marot) : Nikki Shannon (saison 2)
-Acteurs récurrents
-Tyler Champagne (VF : Noé Koretzki) : Travis Parks
+Laura-Leigh (en) (VF : Kelly Marot) : Nikki Shannon (saison 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyler Champagne (VF : Noé Koretzki) : Travis Parks
 Cassidy Guetersloh (VF : Issia Lorrain) : Katie Parks
 Elisabeth Röhm (VF : Anne Dolan) : Taylor Berkhalter
 Greg Grunberg (VF : Pierre Tessier) : Dale Locklin
@@ -580,51 +633,161 @@
 Sunny Mabrey (VF : Laëtitia Laburthe) : Lisa Munsey (saison 2)
 Andrew Borba (VF : Edgar Givry) : L. T. Barnes (saison 2)
 Version française
-Société de doublage : TVS[7],[8]
-Direction artistique : Nathalie Régnier[7],[8]
-Adaptation des dialogues : Catherine Lorans et Laurie Fields[8]
- Source et légende : version française (VF) sur RS Doublage[7] et Doublage Séries Database[8]
+Société de doublage : TVS,
+Direction artistique : Nathalie Régnier,
+Adaptation des dialogues : Catherine Lorans et Laurie Fields
+ Source et légende : version française (VF) sur RS Doublage et Doublage Séries Database
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Développement
-À la suite du succès du téléfilm, La Double Vie de Samantha, diffusé le 19 juillet 2010 sur Lifetime, qui a réalisé une audience de 3,9 millions de téléspectateurs et qui a été nommée au Golden Globe pour la prestation de Jennifer Love Hewitt dans la catégorie « Meilleure performance par une actrice dans une minisérie ou un téléfilm », une série télévisée a été adaptée[9],[10], dont Jennifer Love Hewitt est également productrice[9].
-Le 1er novembre 2013, Lifetime annule la série[11]. L'arrêt de la série serait dû à un désaccord entre la production et Jennifer Love Hewitt. La grossesse de l'actrice intégrée dans le scénario, Jennifer Love Hewitt souhaitait que Kyle Parks, joué par Brian Hallisay (son mari dans la vie réelle) soit le père de l'enfant alors que la production misait sur Evan Parks, interprété par Colin Egglesfield pour mettre plus de piment dans la série. Ce bras de fer dura quelques mois et la chaîne annula donc finalement la série[12].
-Casting
-Jennifer Love Hewitt et Cybill Shepherd ont repris les rôles principaux, mais pas les mêmes que dans le téléfilm.
-Le 21 décembre 2011, Naturi Naughton intègre la distribution pour interpréter le rôle de Kendra, une femme travaillant au spa[13].
-Le 21 janvier 2012, Loretta Devine intègre la distribution dans le rôle de Georgia Cummings, la propriétaire du spa[14].
-Tournage
-Le tournage de la première saison a eu lieu du 17 janvier au 2 mai 2012 à Los Angeles, en Californie.
-Fiche technique
-Titre original : The Client List
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du succès du téléfilm, La Double Vie de Samantha, diffusé le 19 juillet 2010 sur Lifetime, qui a réalisé une audience de 3,9 millions de téléspectateurs et qui a été nommée au Golden Globe pour la prestation de Jennifer Love Hewitt dans la catégorie « Meilleure performance par une actrice dans une minisérie ou un téléfilm », une série télévisée a été adaptée dont Jennifer Love Hewitt est également productrice.
+Le 1er novembre 2013, Lifetime annule la série. L'arrêt de la série serait dû à un désaccord entre la production et Jennifer Love Hewitt. La grossesse de l'actrice intégrée dans le scénario, Jennifer Love Hewitt souhaitait que Kyle Parks, joué par Brian Hallisay (son mari dans la vie réelle) soit le père de l'enfant alors que la production misait sur Evan Parks, interprété par Colin Egglesfield pour mettre plus de piment dans la série. Ce bras de fer dura quelques mois et la chaîne annula donc finalement la série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer Love Hewitt et Cybill Shepherd ont repris les rôles principaux, mais pas les mêmes que dans le téléfilm.
+Le 21 décembre 2011, Naturi Naughton intègre la distribution pour interpréter le rôle de Kendra, une femme travaillant au spa.
+Le 21 janvier 2012, Loretta Devine intègre la distribution dans le rôle de Georgia Cummings, la propriétaire du spa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage de la première saison a eu lieu du 17 janvier au 2 mai 2012 à Los Angeles, en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titre original : The Client List
 Création : Suzanne Martin (en) et Jordan Budde
 Réalisation : Timothy Busfield
 Scénario : Dawn DeKeyser
@@ -643,71 +806,112 @@
 Langue originale : anglais
 Format : couleur - 1,78:1 - son Dolby Digital
 Genre : Dramatique
-Durée : 42 minutes
-Diffusion internationale
-En version originale
+Durée : 42 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diffusion internationale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En version originale
  États-Unis : depuis le 8 avril 2012 sur Lifetime
- Canada : depuis le 2 septembre 2012 sur Lifetime Canada[15].
+ Canada : depuis le 2 septembre 2012 sur Lifetime Canada.
 En version française
  Québec : depuis le 28 janvier 2014 sur Moi &amp; Cie Télé
  France : depuis le 5 mars 2014 sur NT1</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Téléfilm Pilote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Première saison (2012)
-La première saison est composée de dix épisodes[9] diffusée entre le 8 avril et le 17 juin 2012 sur Lifetime.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Première saison (2012)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La première saison est composée de dix épisodes diffusée entre le 8 avril et le 17 juin 2012 sur Lifetime.
 Certains titres d'épisodes peuvent être différents. Les titres français sont indiqués en second le cas échéant
 Le Rub de Sugar Land / La liste (The Rub of Sugarland)
 Tourner la page (Turn the Page)
@@ -718,9 +922,43 @@
 La Vie de Riley / Secret contre secret (Life of Riley)
 Se livrer à des jeux / Rodéo amoureux (Games People Play)
 Les Caprices de la vie / Deux hommes et une femme (Acting Up)
-Le passé n'est qu'un prologue / Entre deux vies (Past Is Prologue)
-Deuxième saison (2013)
-Le 7 mai 2012, la série a été renouvelée pour une deuxième saison de quinze épisodes[16] diffusée depuis le 10 mars 2013[17] sur Lifetime.
+Le passé n'est qu'un prologue / Entre deux vies (Past Is Prologue)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2013)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le 7 mai 2012, la série a été renouvelée pour une deuxième saison de quinze épisodes diffusée depuis le 10 mars 2013 sur Lifetime.
 Sur tous les fronts (Till I Make it On My Own)
 Qui trompe qui ? (Who's Cheatin' Who?)
 Rodéo amoureux (Cowboy Up)
@@ -739,35 +977,43 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Univers de la série</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les personnages
-Personnages principaux
-Riley Parks
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Riley Parks
 Riley est une mère de deux enfants, elle est mariée à Kyle Parks qui va partir en laissant un mot en disant qu'il était parti, Riley est triste et ne veut rien dire aux enfants. En commençant à travailler au salon de massages The Rub, elle remarque que les employées offrent plus que des massages.
 Georgia Cummings
 C'est la propriétaire du salon de massage, The Rub, à Sugar Land.
@@ -784,9 +1030,47 @@
 Kyle Parks
 Kyle est le mari de Riley et frère d'Evan. Il a abandonné Riley et ses enfants à cause de ses grosses dettes financières mais surtout à cause d'une maladie. Il reviendra au bout d'un moment dans la série.
 Linette Montgomery
-C'est la mère de Riley. Elle travaille dans un salon de coiffure et a été mariée plusieurs fois.
-Personnages récurrents
-Travis Parks
+C'est la mère de Riley. Elle travaille dans un salon de coiffure et a été mariée plusieurs fois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Univers de la série</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Travis Parks
 C'est le fils de Kyle et Riley.
 Katie Parks
 C'est la fille de Kyle et Riley.
@@ -805,38 +1089,85 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
-Aux États-Unis
-Lors de sa première diffusion, le pilote a réalisé une audience de 2,79 millions de téléspectateurs[18].
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa première diffusion, le pilote a réalisé une audience de 2,79 millions de téléspectateurs.
 La première saison a obtenu une moyenne de 2,73 millions de téléspectateurs.[réf. souhaitée]
-En France
-Malgré une rude concurrence le jour du lancement de la diffusion de la série, elle réalise de très belles performances notamment sur les ménagères de moins de 50 ans, cible prioritaire des annonceurs. Cependant, dès la deuxième semaine de diffusion, la série accuse une importante érosion de son audience, notamment sur les ménagères de moins de 50 ans, le public cible se retrouvant diminué de moitié en une semaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The_Client_List_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Client_List_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré une rude concurrence le jour du lancement de la diffusion de la série, elle réalise de très belles performances notamment sur les ménagères de moins de 50 ans, cible prioritaire des annonceurs. Cependant, dès la deuxième semaine de diffusion, la série accuse une importante érosion de son audience, notamment sur les ménagères de moins de 50 ans, le public cible se retrouvant diminué de moitié en une semaine.
 </t>
         </is>
       </c>
